--- a/03_Outputs/all/01_TablasDescriptivas/idx8_demografica_vr.xlsx
+++ b/03_Outputs/all/01_TablasDescriptivas/idx8_demografica_vr.xlsx
@@ -386,7 +386,7 @@
         </is>
       </c>
       <c r="B2">
-        <v>7.557779220174634</v>
+        <v>7.557779220174639</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -404,7 +404,7 @@
         </is>
       </c>
       <c r="B3">
-        <v>1.432668629361965</v>
+        <v>1.432668629361963</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -422,7 +422,7 @@
         </is>
       </c>
       <c r="B4">
-        <v>0.7721147031344681</v>
+        <v>0.7721147031344663</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -440,7 +440,7 @@
         </is>
       </c>
       <c r="B5">
-        <v>0.7083432915192766</v>
+        <v>0.7083432915192764</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -458,7 +458,7 @@
         </is>
       </c>
       <c r="B6">
-        <v>0.270045688568311</v>
+        <v>0.2700456885683111</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -476,7 +476,7 @@
         </is>
       </c>
       <c r="B7">
-        <v>0.1884491196515682</v>
+        <v>0.1884491196515686</v>
       </c>
       <c r="C7">
         <v>6</v>
@@ -494,7 +494,7 @@
         </is>
       </c>
       <c r="B8">
-        <v>0.05343126198455184</v>
+        <v>0.05343126198455189</v>
       </c>
       <c r="C8">
         <v>7</v>
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B9">
-        <v>0.01550900241341689</v>
+        <v>0.01550900241341687</v>
       </c>
       <c r="C9">
         <v>8</v>
@@ -530,7 +530,7 @@
         </is>
       </c>
       <c r="B10">
-        <v>0.001223051637038989</v>
+        <v>0.001223051637038991</v>
       </c>
       <c r="C10">
         <v>9</v>
@@ -548,7 +548,7 @@
         </is>
       </c>
       <c r="B11">
-        <v>0.0003798721070015039</v>
+        <v>0.0003798721070015031</v>
       </c>
       <c r="C11">
         <v>10</v>
@@ -566,7 +566,7 @@
         </is>
       </c>
       <c r="B12">
-        <v>5.615944776885491E-05</v>
+        <v>5.615944776885471E-05</v>
       </c>
       <c r="C12">
         <v>11</v>
@@ -584,7 +584,7 @@
         </is>
       </c>
       <c r="B13">
-        <v>7.557779220174634</v>
+        <v>7.557779220174639</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -602,7 +602,7 @@
         </is>
       </c>
       <c r="B14">
-        <v>8.990447849536599</v>
+        <v>8.990447849536602</v>
       </c>
       <c r="C14">
         <v>2</v>
@@ -620,7 +620,7 @@
         </is>
       </c>
       <c r="B15">
-        <v>9.762562552671067</v>
+        <v>9.762562552671069</v>
       </c>
       <c r="C15">
         <v>3</v>
@@ -782,7 +782,7 @@
         </is>
       </c>
       <c r="B24">
-        <v>68.70708381976938</v>
+        <v>68.70708381976944</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -800,7 +800,7 @@
         </is>
       </c>
       <c r="B25">
-        <v>13.02426026692695</v>
+        <v>13.02426026692694</v>
       </c>
       <c r="C25">
         <v>2</v>
@@ -818,7 +818,7 @@
         </is>
       </c>
       <c r="B26">
-        <v>7.019224573949708</v>
+        <v>7.019224573949691</v>
       </c>
       <c r="C26">
         <v>3</v>
@@ -836,7 +836,7 @@
         </is>
       </c>
       <c r="B27">
-        <v>6.439484468357058</v>
+        <v>6.439484468357056</v>
       </c>
       <c r="C27">
         <v>4</v>
@@ -854,7 +854,7 @@
         </is>
       </c>
       <c r="B28">
-        <v>2.454960805166463</v>
+        <v>2.454960805166464</v>
       </c>
       <c r="C28">
         <v>5</v>
@@ -872,7 +872,7 @@
         </is>
       </c>
       <c r="B29">
-        <v>1.713173815014255</v>
+        <v>1.713173815014259</v>
       </c>
       <c r="C29">
         <v>6</v>
@@ -890,7 +890,7 @@
         </is>
       </c>
       <c r="B30">
-        <v>0.4857387453141075</v>
+        <v>0.4857387453141079</v>
       </c>
       <c r="C30">
         <v>7</v>
@@ -908,7 +908,7 @@
         </is>
       </c>
       <c r="B31">
-        <v>0.1409909310310626</v>
+        <v>0.1409909310310624</v>
       </c>
       <c r="C31">
         <v>8</v>
@@ -926,7 +926,7 @@
         </is>
       </c>
       <c r="B32">
-        <v>0.01111865124580899</v>
+        <v>0.011118651245809</v>
       </c>
       <c r="C32">
         <v>9</v>
@@ -944,7 +944,7 @@
         </is>
       </c>
       <c r="B33">
-        <v>0.003453382790922762</v>
+        <v>0.003453382790922754</v>
       </c>
       <c r="C33">
         <v>10</v>
@@ -962,7 +962,7 @@
         </is>
       </c>
       <c r="B34">
-        <v>0.0005105404342623172</v>
+        <v>0.0005105404342623154</v>
       </c>
       <c r="C34">
         <v>11</v>
@@ -980,7 +980,7 @@
         </is>
       </c>
       <c r="B35">
-        <v>68.70708381976938</v>
+        <v>68.70708381976944</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -998,7 +998,7 @@
         </is>
       </c>
       <c r="B36">
-        <v>81.73134408669632</v>
+        <v>81.73134408669635</v>
       </c>
       <c r="C36">
         <v>2</v>
@@ -1016,7 +1016,7 @@
         </is>
       </c>
       <c r="B37">
-        <v>88.75056866064604</v>
+        <v>88.75056866064605</v>
       </c>
       <c r="C37">
         <v>3</v>
